--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="1020">
   <si>
     <t>anchor score</t>
   </si>
@@ -463,427 +463,427 @@
     <t>corona</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>better</t>
@@ -3439,10 +3439,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3500,7 +3500,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02907788512159742</v>
+        <v>0.0295367889638801</v>
       </c>
       <c r="C3">
         <v>145</v>
@@ -3521,16 +3521,16 @@
         <v>147</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K3">
-        <v>0.003873668129495213</v>
+        <v>0.007854201117634624</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3550,7 +3550,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01991284309423193</v>
+        <v>0.02022710529619406</v>
       </c>
       <c r="C4">
         <v>68</v>
@@ -3571,28 +3571,28 @@
         <v>448</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="K4">
-        <v>0.003846358616020339</v>
+        <v>0.007212377548022477</v>
       </c>
       <c r="L4">
-        <v>344</v>
+        <v>156</v>
       </c>
       <c r="M4">
-        <v>357</v>
+        <v>156</v>
       </c>
       <c r="N4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2750</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3600,7 +3600,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01079925542225699</v>
+        <v>0.01096968803062386</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -3621,16 +3621,16 @@
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K5">
-        <v>0.003742318950281471</v>
+        <v>0.003873668129495213</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3650,7 +3650,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01079925542225699</v>
+        <v>0.01096968803062386</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -3671,28 +3671,28 @@
         <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="K6">
-        <v>0.003568438591199421</v>
+        <v>0.003846358616020339</v>
       </c>
       <c r="L6">
-        <v>168</v>
+        <v>344</v>
       </c>
       <c r="M6">
-        <v>171</v>
+        <v>357</v>
       </c>
       <c r="N6">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O6">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>212</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3700,7 +3700,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.008706638070394658</v>
+        <v>0.008844045232131503</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -3721,28 +3721,28 @@
         <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>161</v>
+        <v>291</v>
       </c>
       <c r="K7">
-        <v>0.003403117984987198</v>
+        <v>0.003742318950281471</v>
       </c>
       <c r="L7">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3750,7 +3750,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008008942172430195</v>
+        <v>0.008135338377662404</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -3771,28 +3771,28 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>292</v>
+        <v>149</v>
       </c>
       <c r="K8">
-        <v>0.003215118619209614</v>
+        <v>0.003568438591199421</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3800,7 +3800,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007636226740843514</v>
+        <v>0.007756740793955033</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -3821,28 +3821,28 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>293</v>
+        <v>159</v>
       </c>
       <c r="K9">
-        <v>0.003162836783381541</v>
+        <v>0.003403117984987198</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3850,7 +3850,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007636226740843514</v>
+        <v>0.007756740793955033</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -3871,16 +3871,16 @@
         <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K10">
-        <v>0.003000530430853879</v>
+        <v>0.003215118619209614</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>188</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3900,7 +3900,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007244360769164951</v>
+        <v>0.007358690438532221</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3921,28 +3921,28 @@
         <v>140</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="K11">
-        <v>0.002990520893985792</v>
+        <v>0.003162836783381541</v>
       </c>
       <c r="L11">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>51</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3950,7 +3950,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006830048833651107</v>
+        <v>0.006937839879651657</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -3971,16 +3971,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K12">
-        <v>0.002887261753275251</v>
+        <v>0.003000530430853879</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4000,7 +4000,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006388925667614351</v>
+        <v>0.006489754958488364</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -4021,28 +4021,28 @@
         <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="K13">
-        <v>0.00276936418648252</v>
+        <v>0.002990520893985792</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>120</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4050,7 +4050,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006388925667614351</v>
+        <v>0.006489754958488364</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -4071,16 +4071,16 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K14">
-        <v>0.00276936418648252</v>
+        <v>0.002887261753275251</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4100,7 +4100,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.005914995799030133</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -4121,28 +4121,28 @@
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="K15">
-        <v>0.002751097534699973</v>
+        <v>0.00276936418648252</v>
       </c>
       <c r="L15">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1885</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4150,7 +4150,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.005914995799030133</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4171,16 +4171,16 @@
         <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K16">
-        <v>0.002708491606059533</v>
+        <v>0.00276936418648252</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4200,7 +4200,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.005914995799030133</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4221,28 +4221,28 @@
         <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="K17">
-        <v>0.00264621910710695</v>
+        <v>0.002751097534699973</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>116</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4250,7 +4250,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.005914995799030133</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4271,16 +4271,16 @@
         <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K18">
-        <v>0.002582445419663475</v>
+        <v>0.002708491606059533</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>247</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4300,7 +4300,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005914995799030133</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4321,16 +4321,16 @@
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K19">
-        <v>0.002582445419663475</v>
+        <v>0.00264621910710695</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4350,7 +4350,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005914995799030133</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4371,28 +4371,28 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="K20">
-        <v>0.002542046319977058</v>
+        <v>0.002582445419663475</v>
       </c>
       <c r="L20">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4400,7 +4400,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005914995799030133</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4421,28 +4421,28 @@
         <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>155</v>
+        <v>301</v>
       </c>
       <c r="K21">
-        <v>0.002510549025239184</v>
+        <v>0.002582445419663475</v>
       </c>
       <c r="L21">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>780</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4450,7 +4450,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4471,28 +4471,28 @@
         <v>32</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="K22">
-        <v>0.002449922837761789</v>
+        <v>0.002542046319977058</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>129</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4500,7 +4500,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4521,28 +4521,28 @@
         <v>26</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>303</v>
+        <v>153</v>
       </c>
       <c r="K23">
-        <v>0.002449922837761789</v>
+        <v>0.002510549025239184</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>167</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4550,7 +4550,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4571,28 +4571,28 @@
         <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="K24">
-        <v>0.00240036367139072</v>
+        <v>0.002449922837761789</v>
       </c>
       <c r="L24">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2993</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4600,7 +4600,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4621,16 +4621,16 @@
         <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K25">
-        <v>0.00238089703551198</v>
+        <v>0.002449922837761789</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>96</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4650,7 +4650,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4671,28 +4671,28 @@
         <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>305</v>
+        <v>148</v>
       </c>
       <c r="K26">
-        <v>0.00238089703551198</v>
+        <v>0.00240036367139072</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>47</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4700,7 +4700,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4721,28 +4721,28 @@
         <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="K27">
-        <v>0.0023622894179588</v>
+        <v>0.00238089703551198</v>
       </c>
       <c r="L27">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4750,7 +4750,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4771,28 +4771,28 @@
         <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>156</v>
+        <v>305</v>
       </c>
       <c r="K28">
-        <v>0.002348957443277791</v>
+        <v>0.00238089703551198</v>
       </c>
       <c r="L28">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4800,7 +4800,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4821,28 +4821,28 @@
         <v>72</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>306</v>
+        <v>151</v>
       </c>
       <c r="K29">
-        <v>0.002309809402620201</v>
+        <v>0.0023622894179588</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4850,7 +4850,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4871,28 +4871,28 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="K30">
-        <v>0.002309809402620201</v>
+        <v>0.002348957443277791</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4900,7 +4900,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4921,7 +4921,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K31">
         <v>0.002309809402620201</v>
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4950,7 +4950,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4971,16 +4971,16 @@
         <v>47</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K32">
-        <v>0.002236463337315335</v>
+        <v>0.002309809402620201</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>119</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5000,7 +5000,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -5021,16 +5021,16 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K33">
-        <v>0.002236463337315335</v>
+        <v>0.002309809402620201</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5050,7 +5050,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5071,28 +5071,28 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>150</v>
+        <v>309</v>
       </c>
       <c r="K34">
-        <v>0.002234915332517712</v>
+        <v>0.002236463337315335</v>
       </c>
       <c r="L34">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5100,7 +5100,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5121,16 +5121,16 @@
         <v>10</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K35">
-        <v>0.002160628853338445</v>
+        <v>0.002236463337315335</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5150,7 +5150,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5171,7 +5171,7 @@
         <v>23</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K36">
         <v>0.002160628853338445</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5200,7 +5200,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5221,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K37">
         <v>0.002160628853338445</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>115</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5250,7 +5250,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5271,7 +5271,7 @@
         <v>16</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K38">
         <v>0.002160628853338445</v>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5300,7 +5300,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5321,16 +5321,16 @@
         <v>27</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K39">
-        <v>0.002082034059423995</v>
+        <v>0.002160628853338445</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5350,7 +5350,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5371,28 +5371,28 @@
         <v>12</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>152</v>
+        <v>315</v>
       </c>
       <c r="K40">
-        <v>0.002051413692441145</v>
+        <v>0.002082034059423995</v>
       </c>
       <c r="L40">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="N40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>154</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5400,7 +5400,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -5421,28 +5421,28 @@
         <v>26</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K41">
-        <v>0.002037366826209911</v>
+        <v>0.002051413692441145</v>
       </c>
       <c r="L41">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="M41">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N41">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5450,7 +5450,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -5471,7 +5471,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K42">
         <v>0.002030097920143768</v>
@@ -5500,7 +5500,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5550,7 +5550,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5600,7 +5600,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5650,7 +5650,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5700,7 +5700,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5750,7 +5750,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5771,7 +5771,7 @@
         <v>249</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K48">
         <v>0.001994633684496315</v>
@@ -5800,7 +5800,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5821,7 +5821,7 @@
         <v>8</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K49">
         <v>0.001982016146103097</v>
@@ -5850,7 +5850,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5871,7 +5871,7 @@
         <v>5</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K50">
         <v>0.001969223767300181</v>
@@ -5900,7 +5900,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5950,7 +5950,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -6000,7 +6000,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -6050,7 +6050,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -6100,7 +6100,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -6150,7 +6150,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -6200,7 +6200,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6250,7 +6250,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6271,7 +6271,7 @@
         <v>13</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K58">
         <v>0.001907532446194933</v>
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6350,7 +6350,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6400,7 +6400,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6450,7 +6450,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6500,7 +6500,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6550,7 +6550,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6621,7 +6621,7 @@
         <v>4</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K65">
         <v>0.001748431965156587</v>
@@ -6650,7 +6650,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6700,7 +6700,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6750,7 +6750,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6800,7 +6800,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6850,7 +6850,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6900,7 +6900,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6921,7 +6921,7 @@
         <v>43</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K71">
         <v>0.00165184522908451</v>
@@ -6950,7 +6950,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -7000,7 +7000,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -7050,7 +7050,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -7100,7 +7100,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -7150,7 +7150,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -7200,7 +7200,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.00312683446273572</v>
+        <v>0.003176181804990179</v>
       </c>
       <c r="C77">
         <v>13</v>
@@ -7250,7 +7250,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002650069619904135</v>
+        <v>0.002691892714183688</v>
       </c>
       <c r="C78">
         <v>13</v>
@@ -7300,7 +7300,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7350,7 +7350,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7400,7 +7400,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7450,7 +7450,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7500,7 +7500,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7550,7 +7550,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7571,7 +7571,7 @@
         <v>10</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K84">
         <v>0.001617716647483261</v>
@@ -7600,7 +7600,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7621,7 +7621,7 @@
         <v>11</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K85">
         <v>0.001551896673420126</v>
@@ -7650,7 +7650,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7671,7 +7671,7 @@
         <v>7</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K86">
         <v>0.001551896673420126</v>
@@ -7700,7 +7700,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7750,7 +7750,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7800,7 +7800,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7850,7 +7850,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7900,7 +7900,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7950,7 +7950,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -8000,7 +8000,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8050,7 +8050,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8100,7 +8100,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8150,7 +8150,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8200,7 +8200,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8221,7 +8221,7 @@
         <v>15</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K97">
         <v>0.001521808684445607</v>
@@ -8250,7 +8250,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8300,7 +8300,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8350,7 +8350,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8400,7 +8400,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8450,7 +8450,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8500,7 +8500,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8550,7 +8550,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8600,7 +8600,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8650,7 +8650,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8700,7 +8700,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8750,7 +8750,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8800,7 +8800,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8850,7 +8850,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8900,7 +8900,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8950,7 +8950,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9000,7 +9000,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9050,7 +9050,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9100,7 +9100,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9150,7 +9150,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9200,7 +9200,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9250,7 +9250,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9271,7 +9271,7 @@
         <v>19</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K118">
         <v>0.001404305585744639</v>
@@ -9300,7 +9300,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9321,7 +9321,7 @@
         <v>16</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K119">
         <v>0.001332680531791419</v>
@@ -9350,7 +9350,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9371,7 +9371,7 @@
         <v>12</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K120">
         <v>0.001319500147810329</v>
@@ -9400,7 +9400,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9450,7 +9450,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9500,7 +9500,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9550,7 +9550,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9600,7 +9600,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9650,7 +9650,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9700,7 +9700,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9750,7 +9750,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9800,7 +9800,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9850,7 +9850,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9900,7 +9900,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9950,7 +9950,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10000,7 +10000,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10050,7 +10050,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10100,7 +10100,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10150,7 +10150,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10200,7 +10200,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10250,7 +10250,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10300,7 +10300,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10350,7 +10350,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10400,7 +10400,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10450,7 +10450,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10500,7 +10500,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002371935835389988</v>
+        <v>0.002409369454236635</v>
       </c>
       <c r="C143">
         <v>11</v>
@@ -10550,25 +10550,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.00225848756694182</v>
+        <v>0.002025570387449548</v>
       </c>
       <c r="C144">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D144">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="E144">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F144">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>404</v>
@@ -10600,13 +10600,13 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002116442290844423</v>
+        <v>0.001991649887593977</v>
       </c>
       <c r="C145">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D145">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="E145">
         <v>0.95</v>
@@ -10618,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>405</v>
@@ -10650,25 +10650,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001994099734537637</v>
+        <v>0.001847503295974244</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D146">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="E146">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F146">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>406</v>
@@ -10700,25 +10700,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001960706246867951</v>
+        <v>0.001806404198021687</v>
       </c>
       <c r="C147">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D147">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E147">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F147">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>154</v>
+        <v>786</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>407</v>
@@ -10750,13 +10750,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0018187992157105</v>
+        <v>0.001753198013393539</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D148">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E148">
         <v>0.97</v>
@@ -10768,7 +10768,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>38</v>
+        <v>780</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>408</v>
@@ -10800,25 +10800,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.00177833866157487</v>
+        <v>0.001702865273286807</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E149">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F149">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>786</v>
+        <v>14</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>409</v>
@@ -10850,25 +10850,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001725959124778648</v>
+        <v>0.001700933251394038</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D150">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E150">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F150">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>780</v>
+        <v>316</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>410</v>
@@ -10900,25 +10900,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001676408388695977</v>
+        <v>0.00156675027761939</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E151">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F151">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>411</v>
@@ -10950,25 +10950,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001674506384022449</v>
+        <v>0.001472700249522069</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D152">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E152">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F152">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>316</v>
+        <v>783</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>412</v>
@@ -11000,25 +11000,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001542408169099191</v>
+        <v>0.001456940147313435</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D153">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E153">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F153">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>15</v>
+        <v>571</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>413</v>
@@ -11050,28 +11050,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001449819366841734</v>
+        <v>0.001397488499862123</v>
       </c>
       <c r="C154">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="E154">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F154">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>783</v>
+        <v>20</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K154">
         <v>0.001272674995196652</v>
@@ -11100,28 +11100,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001434304124406692</v>
+        <v>0.001388759786867197</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E155">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F155">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>571</v>
+        <v>348</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K155">
         <v>0.001250037124583307</v>
@@ -11150,13 +11150,13 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001375776158587761</v>
+        <v>0.001339025080726898</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E156">
         <v>0.99</v>
@@ -11168,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>414</v>
@@ -11200,25 +11200,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001367183060873712</v>
+        <v>0.001333923784081599</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E157">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F157">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>348</v>
+        <v>18</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>415</v>
@@ -11250,25 +11250,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001318221067290979</v>
+        <v>0.001333858469690729</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E158">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F158">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>51</v>
+        <v>1098</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>416</v>
@@ -11300,25 +11300,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001313199027894463</v>
+        <v>0.001331023883453868</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D159">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E159">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F159">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>417</v>
@@ -11350,13 +11350,13 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001313134728272834</v>
+        <v>0.001298710579327371</v>
       </c>
       <c r="C160">
         <v>3</v>
       </c>
       <c r="D160">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E160">
         <v>0.95</v>
@@ -11368,7 +11368,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>1098</v>
+        <v>34</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>418</v>
@@ -11400,25 +11400,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001310344182114837</v>
+        <v>0.001287191460968153</v>
       </c>
       <c r="C161">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E161">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F161">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>419</v>
@@ -11450,25 +11450,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.00127853291967739</v>
+        <v>0.001189439865075298</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D162">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E162">
-        <v>0.95</v>
+        <v>0.11</v>
       </c>
       <c r="F162">
-        <v>0.05000000000000004</v>
+        <v>0.89</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>420</v>
@@ -11500,25 +11500,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001267192770253529</v>
+        <v>0.001162783249368232</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E163">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F163">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>421</v>
@@ -11550,25 +11550,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001170959910300433</v>
+        <v>0.001149000610210748</v>
       </c>
       <c r="C164">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E164">
-        <v>0.11</v>
+        <v>0.98</v>
       </c>
       <c r="F164">
-        <v>0.89</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>46</v>
+        <v>432</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>422</v>
@@ -11600,13 +11600,13 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001144717450085529</v>
+        <v>0.001134618789055186</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E165">
         <v>0.98</v>
@@ -11618,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>515</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>423</v>
@@ -11650,13 +11650,13 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001131148947477346</v>
+        <v>0.001070035659164923</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E166">
         <v>0.98</v>
@@ -11668,7 +11668,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>432</v>
+        <v>2</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>424</v>
@@ -11700,25 +11700,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001116990572174188</v>
+        <v>0.001057536878654865</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D167">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E167">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F167">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>515</v>
+        <v>302</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>425</v>
@@ -11750,13 +11750,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001053410850152314</v>
+        <v>0.001042307665824351</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E168">
         <v>0.98</v>
@@ -11768,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>426</v>
@@ -11800,25 +11800,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001041106259281722</v>
+        <v>0.001042307665824351</v>
       </c>
       <c r="C169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E169">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F169">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>427</v>
@@ -11850,25 +11850,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001026113657962751</v>
+        <v>0.001030184714286094</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E170">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F170">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>428</v>
@@ -11900,25 +11900,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001026113657962751</v>
+        <v>0.000998315145390103</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E171">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F171">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>429</v>
@@ -11950,25 +11950,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001014179056926897</v>
+        <v>0.0009556649268868977</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E172">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F172">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>430</v>
@@ -12000,13 +12000,13 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0009828046355446099</v>
+        <v>0.0009288638397733915</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
       <c r="D173">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E173">
         <v>0.9399999999999999</v>
@@ -12018,7 +12018,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>431</v>
@@ -12050,13 +12050,13 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0009408170601326782</v>
+        <v>0.0009032091638248438</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E174">
         <v>0.97</v>
@@ -12100,25 +12100,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0009144323731183425</v>
+        <v>0.0009032091638248438</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E175">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F175">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>433</v>
@@ -12150,25 +12150,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0008891762858376322</v>
+        <v>0.0008584588865056393</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E176">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F176">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>434</v>
@@ -12200,25 +12200,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0008891762858376322</v>
+        <v>0.0008584588865056393</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E177">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F177">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>435</v>
@@ -12250,25 +12250,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0008451212795660054</v>
+        <v>0.0008502638854971955</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E178">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F178">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>436</v>
@@ -12300,25 +12300,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0008451212795660054</v>
+        <v>0.0008472249601325435</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E179">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F179">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>437</v>
@@ -12350,25 +12350,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.000837053601722408</v>
+        <v>0.0008254552460972386</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E180">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F180">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>5</v>
+        <v>213</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>438</v>
@@ -12400,25 +12400,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0008340618911896714</v>
+        <v>0.0007284505973464228</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E181">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F181">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>439</v>
@@ -12450,25 +12450,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0008126304063853238</v>
+        <v>0.0007095298377787724</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E182">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F182">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>440</v>
@@ -12500,25 +12500,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0007171328884903863</v>
+        <v>0.0006568059199027401</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E183">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F183">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>441</v>
@@ -12550,25 +12550,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0006985060948401251</v>
+        <v>0.0006568059199027401</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E184">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F184">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>442</v>
@@ -12600,25 +12600,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0006466013319684874</v>
+        <v>0.0006546610771450425</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E185">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F185">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>443</v>
@@ -12650,25 +12650,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0006466013319684874</v>
+        <v>0.0006299203394677568</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E186">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F186">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>81</v>
+        <v>530</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>444</v>
@@ -12700,25 +12700,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0006444898129611746</v>
+        <v>0.0006299203394677568</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E187">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F187">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>445</v>
@@ -12750,7 +12750,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.000620133464378956</v>
+        <v>0.0006299203394677568</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12768,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>530</v>
+        <v>97</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>446</v>
@@ -12800,7 +12800,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.000620133464378956</v>
+        <v>0.0006299203394677568</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -12818,7 +12818,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>447</v>
@@ -12850,25 +12850,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.000620133464378956</v>
+        <v>0.0006253757799798401</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E190">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F190">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>448</v>
@@ -12900,13 +12900,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.000620133464378956</v>
+        <v>0.0006012273592330891</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E191">
         <v>0.93</v>
@@ -12918,7 +12918,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>449</v>
@@ -12950,13 +12950,13 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0006156595122889199</v>
+        <v>0.0005947199325376484</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
       <c r="D192">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E192">
         <v>0.89</v>
@@ -12968,7 +12968,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>450</v>
@@ -13000,25 +13000,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0005918862779945383</v>
+        <v>0.0005704923481426622</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E193">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F193">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>451</v>
@@ -13050,25 +13050,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0005854799551502157</v>
+        <v>0.0005374342555268883</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E194">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F194">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>101</v>
+        <v>348</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>452</v>
@@ -13100,13 +13100,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0005616287871484158</v>
+        <v>0.0005374342555268883</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E195">
         <v>0.92</v>
@@ -13118,7 +13118,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>453</v>
@@ -13150,7 +13150,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0005290843077672581</v>
+        <v>0.0005374342555268883</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -13168,7 +13168,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>348</v>
+        <v>154</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>454</v>
@@ -13200,7 +13200,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0005290843077672581</v>
+        <v>0.0005374342555268883</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -13218,7 +13218,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>455</v>
@@ -13250,25 +13250,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0005290843077672581</v>
+        <v>0.0005302400160740332</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D198">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E198">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F198">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>154</v>
+        <v>933</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>456</v>
@@ -13300,25 +13300,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0005290843077672581</v>
+        <v>0.0005017133597475609</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E199">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F199">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>457</v>
@@ -13350,25 +13350,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0005220018429602948</v>
+        <v>0.0005017133597475609</v>
       </c>
       <c r="C200">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F200">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>933</v>
+        <v>50</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>458</v>
@@ -13400,7 +13400,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0004939183963615862</v>
+        <v>0.0005017133597475609</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>459</v>
@@ -13450,25 +13450,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0004939183963615862</v>
+        <v>0.0004932940340207733</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E202">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F202">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>460</v>
@@ -13500,25 +13500,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0004939183963615862</v>
+        <v>0.000462915287028149</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E203">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F203">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>461</v>
@@ -13550,25 +13550,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0004856298790625589</v>
+        <v>0.000462915287028149</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E204">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F204">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>462</v>
@@ -13600,7 +13600,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0004557231171504962</v>
+        <v>0.000462915287028149</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13618,7 +13618,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>463</v>
@@ -13650,7 +13650,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0004557231171504962</v>
+        <v>0.000462915287028149</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13668,7 +13668,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>464</v>
@@ -13700,7 +13700,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0004557231171504962</v>
+        <v>0.000462915287028149</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13718,7 +13718,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>465</v>
@@ -13750,25 +13750,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0004557231171504962</v>
+        <v>0.0004205304972041778</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E208">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F208">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>466</v>
@@ -13800,28 +13800,28 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0004557231171504962</v>
+        <v>0.0004205304972041778</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E209">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F209">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K209">
         <v>0.00112513394013794</v>
@@ -13850,7 +13850,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0004139968465355138</v>
+        <v>0.0004205304972041778</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13868,10 +13868,10 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K210">
         <v>0.00112513394013794</v>
@@ -13900,28 +13900,28 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0004139968465355138</v>
+        <v>0.0003745202529613801</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E211">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F211">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K211">
         <v>0.001121057033720932</v>
@@ -13950,28 +13950,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0004139968465355138</v>
+        <v>0.0003745202529613801</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E212">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F212">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K212">
         <v>0.001028935683485289</v>
@@ -14000,28 +14000,28 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.000368701449051895</v>
+        <v>0.0003739293291327246</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F213">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K213">
         <v>0.0010104768764786</v>
@@ -14050,28 +14050,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.000368701449051895</v>
+        <v>0.0003739293291327246</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F214">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K214">
         <v>0.0010104768764786</v>
@@ -14100,7 +14100,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0003681197062217496</v>
+        <v>0.0003739293291327246</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14118,7 +14118,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>467</v>
@@ -14150,7 +14150,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0003681197062217496</v>
+        <v>0.0003739293291327246</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -14168,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>468</v>
@@ -14200,7 +14200,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0003681197062217496</v>
+        <v>0.0003739293291327246</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14218,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>469</v>
@@ -14250,7 +14250,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0003681197062217496</v>
+        <v>0.0003739293291327246</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14268,7 +14268,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>470</v>
@@ -14300,7 +14300,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0003681197062217496</v>
+        <v>0.0003739293291327246</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14318,7 +14318,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>471</v>
@@ -14350,25 +14350,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0003681197062217496</v>
+        <v>0.0003223366829916837</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E220">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F220">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>472</v>
@@ -14400,25 +14400,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0003681197062217496</v>
+        <v>0.0003223366829916837</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E221">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F221">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>473</v>
@@ -14450,7 +14450,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0003173286388703532</v>
+        <v>0.0003223366829916837</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14468,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>474</v>
@@ -14500,7 +14500,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0003173286388703532</v>
+        <v>0.0003223366829916837</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>475</v>
@@ -14550,7 +14550,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0003173286388703532</v>
+        <v>0.0003223366829916837</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14568,7 +14568,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>476</v>
@@ -14600,25 +14600,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0003173286388703532</v>
+        <v>0.00028342521041522</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E225">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F225">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>477</v>
@@ -14650,25 +14650,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0003173286388703532</v>
+        <v>0.00028342521041522</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E226">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F226">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>478</v>
@@ -14700,25 +14700,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0002790217216602854</v>
+        <v>0.000264825810560693</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E227">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F227">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>479</v>
@@ -14750,19 +14750,19 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0002790217216602854</v>
+        <v>0.000264825810560693</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E228">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F228">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
@@ -14800,7 +14800,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0002607112948579013</v>
+        <v>0.000264825810560693</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14818,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>481</v>
@@ -14850,7 +14850,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0002607112948579013</v>
+        <v>0.000264825810560693</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>482</v>
@@ -14900,7 +14900,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0002607112948579013</v>
+        <v>0.000264825810560693</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14918,7 +14918,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>483</v>
@@ -14950,7 +14950,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0002607112948579013</v>
+        <v>0.000264825810560693</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14968,7 +14968,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>484</v>
@@ -15000,7 +15000,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0002607112948579013</v>
+        <v>0.000264825810560693</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -15018,7 +15018,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>485</v>
@@ -15050,7 +15050,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0002607112948579013</v>
+        <v>0.000264825810560693</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -15068,7 +15068,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>486</v>
@@ -15100,7 +15100,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0002607112948579013</v>
+        <v>0.000264825810560693</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -15118,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>487</v>
@@ -15150,7 +15150,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0002607112948579013</v>
+        <v>0.000264825810560693</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15168,7 +15168,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>488</v>
@@ -15200,25 +15200,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0002607112948579013</v>
+        <v>0.0002004118882438262</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F237">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>489</v>
@@ -15250,25 +15250,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0002607112948579013</v>
+        <v>0.0002004118882438262</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F238">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>490</v>
@@ -15300,7 +15300,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0001972981514843332</v>
+        <v>0.0002004118882438262</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15318,7 +15318,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>491</v>
@@ -15350,7 +15350,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0001972981514843332</v>
+        <v>0.0002004118882438262</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15368,7 +15368,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>492</v>
@@ -15400,7 +15400,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001972981514843332</v>
+        <v>0.0002004118882438262</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15418,7 +15418,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>493</v>
@@ -15450,7 +15450,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0001972981514843332</v>
+        <v>0.0002004118882438262</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15468,7 +15468,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>494</v>
@@ -15500,7 +15500,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001972981514843332</v>
+        <v>0.0002004118882438262</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15518,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>495</v>
@@ -15550,25 +15550,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001972981514843332</v>
+        <v>0.0001818708491700545</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E244">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F244">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>496</v>
@@ -15600,25 +15600,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001972981514843332</v>
+        <v>0.0001286021107483018</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E245">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F245">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>497</v>
@@ -15650,13 +15650,13 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001790451787295264</v>
+        <v>0.0001286021107483018</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E246">
         <v>0.75</v>
@@ -15668,7 +15668,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>498</v>
@@ -15700,7 +15700,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.000126604060018406</v>
+        <v>0.0001286021107483018</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15718,7 +15718,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>499</v>
@@ -15750,7 +15750,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.000126604060018406</v>
+        <v>0.0001286021107483018</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15768,7 +15768,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>500</v>
@@ -15800,7 +15800,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.000126604060018406</v>
+        <v>0.0001286021107483018</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15818,7 +15818,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>501</v>
@@ -15850,7 +15850,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.000126604060018406</v>
+        <v>0.0001286021107483018</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15868,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>502</v>
@@ -15900,7 +15900,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.000126604060018406</v>
+        <v>0.0001286021107483018</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15918,7 +15918,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>503</v>
@@ -15950,7 +15950,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.000126604060018406</v>
+        <v>0.0001286021107483018</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15968,7 +15968,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>504</v>
@@ -16000,7 +16000,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.000126604060018406</v>
+        <v>0.0001286021107483018</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16018,7 +16018,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>505</v>
@@ -16050,7 +16050,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.000126604060018406</v>
+        <v>0.0001286021107483018</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16068,7 +16068,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>506</v>
@@ -16100,7 +16100,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.000126604060018406</v>
+        <v>0.0001286021107483018</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16118,7 +16118,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>507</v>
@@ -16150,25 +16150,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.000126604060018406</v>
+        <v>0.0001279397492732842</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E256">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F256">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>508</v>
@@ -16200,25 +16200,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.000126604060018406</v>
+        <v>5.234461108385459E-05</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E257">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F257">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>509</v>
@@ -16250,25 +16250,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0001259519894462431</v>
+        <v>5.234461108385459E-05</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258">
+        <v>3</v>
+      </c>
+      <c r="E258">
+        <v>0.67</v>
+      </c>
+      <c r="F258">
+        <v>0.33</v>
+      </c>
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258">
         <v>7</v>
-      </c>
-      <c r="E258">
-        <v>0.71</v>
-      </c>
-      <c r="F258">
-        <v>0.29</v>
-      </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258">
-        <v>41</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>510</v>
@@ -16300,7 +16300,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>5.15313492503307E-05</v>
+        <v>5.234461108385459E-05</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16318,7 +16318,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>511</v>
@@ -16350,7 +16350,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>5.15313492503307E-05</v>
+        <v>5.234461108385459E-05</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16368,7 +16368,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>512</v>
@@ -16400,7 +16400,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>5.15313492503307E-05</v>
+        <v>5.234461108385459E-05</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16418,7 +16418,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>513</v>
@@ -16450,7 +16450,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>5.15313492503307E-05</v>
+        <v>5.234461108385459E-05</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16468,7 +16468,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>514</v>
@@ -16500,7 +16500,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>5.15313492503307E-05</v>
+        <v>5.234461108385459E-05</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16518,7 +16518,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>515</v>
@@ -16550,7 +16550,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>5.15313492503307E-05</v>
+        <v>5.234461108385459E-05</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16568,7 +16568,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>516</v>
@@ -16600,7 +16600,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>5.15313492503307E-05</v>
+        <v>5.234461108385459E-05</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16650,7 +16650,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>5.15313492503307E-05</v>
+        <v>5.234461108385459E-05</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16668,7 +16668,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>518</v>
@@ -16700,7 +16700,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>5.15313492503307E-05</v>
+        <v>5.234461108385459E-05</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16718,7 +16718,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>519</v>
@@ -16750,7 +16750,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>5.15313492503307E-05</v>
+        <v>5.234461108385459E-05</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16768,7 +16768,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>520</v>
@@ -16800,25 +16800,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>5.15313492503307E-05</v>
+        <v>2.557991186668382E-05</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E269">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F269">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>521</v>
@@ -16850,25 +16850,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>5.15313492503307E-05</v>
+        <v>2.557991186668382E-05</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E270">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F270">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>522</v>
@@ -16900,25 +16900,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>2.518248478497807E-05</v>
+        <v>1.581131478987431E-05</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D271">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E271">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F271">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>523</v>
@@ -16950,25 +16950,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>2.518248478497807E-05</v>
+        <v>0</v>
       </c>
       <c r="C272">
         <v>2</v>
       </c>
       <c r="D272">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E272">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F272">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>524</v>
@@ -17000,25 +17000,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>1.556565934244273E-05</v>
+        <v>0</v>
       </c>
       <c r="C273">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E273">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F273">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>525</v>
@@ -17053,10 +17053,10 @@
         <v>0</v>
       </c>
       <c r="C274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E274">
         <v>0.5</v>
@@ -17068,7 +17068,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>526</v>
@@ -17118,7 +17118,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>527</v>
@@ -17168,7 +17168,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>528</v>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>529</v>
@@ -17268,7 +17268,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>530</v>
@@ -17318,7 +17318,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>531</v>
@@ -17368,7 +17368,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>532</v>
@@ -17418,7 +17418,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>533</v>
@@ -17446,30 +17446,6 @@
       </c>
     </row>
     <row r="282" spans="1:17">
-      <c r="A282" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-      <c r="C282">
-        <v>1</v>
-      </c>
-      <c r="D282">
-        <v>2</v>
-      </c>
-      <c r="E282">
-        <v>0.5</v>
-      </c>
-      <c r="F282">
-        <v>0.5</v>
-      </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282">
-        <v>28</v>
-      </c>
       <c r="J282" s="1" t="s">
         <v>534</v>
       </c>
@@ -17496,30 +17472,6 @@
       </c>
     </row>
     <row r="283" spans="1:17">
-      <c r="A283" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-      <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <v>2</v>
-      </c>
-      <c r="E283">
-        <v>0.5</v>
-      </c>
-      <c r="F283">
-        <v>0.5</v>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283">
-        <v>59</v>
-      </c>
       <c r="J283" s="1" t="s">
         <v>535</v>
       </c>
@@ -17677,7 +17629,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K289">
         <v>0.0009690116427727219</v>
@@ -17703,7 +17655,7 @@
     </row>
     <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K290">
         <v>0.0009319536737606433</v>
@@ -17729,7 +17681,7 @@
     </row>
     <row r="291" spans="10:17">
       <c r="J291" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K291">
         <v>0.0008469047340815275</v>
@@ -20823,7 +20775,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K410">
         <v>0.0008162752486913695</v>
@@ -20849,7 +20801,7 @@
     </row>
     <row r="411" spans="10:17">
       <c r="J411" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K411">
         <v>0.000727567399197263</v>
@@ -20875,7 +20827,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K412">
         <v>0.0007217092703751979</v>
@@ -20901,7 +20853,7 @@
     </row>
     <row r="413" spans="10:17">
       <c r="J413" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K413">
         <v>0.0006201175011412292</v>
@@ -20927,7 +20879,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K414">
         <v>0.0005988520804880379</v>
@@ -20953,7 +20905,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K415">
         <v>0.0005988520804880379</v>
@@ -30391,7 +30343,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K778">
         <v>0.0005548639688518774</v>
@@ -30417,7 +30369,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K779">
         <v>0.0005548639688518774</v>
@@ -30443,7 +30395,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K780">
         <v>0.0005548639688518774</v>
@@ -30469,7 +30421,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K781">
         <v>0.0005548639688518774</v>
@@ -30495,7 +30447,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K782">
         <v>0.0005282111180053232</v>
@@ -30521,7 +30473,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K783">
         <v>0.0005103255191274972</v>
@@ -30547,7 +30499,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K784">
         <v>0.0004652402939001136</v>
@@ -30573,7 +30525,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K785">
         <v>0.0004623540328728084</v>
@@ -30599,7 +30551,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K786">
         <v>0.0004292273579279417</v>
@@ -30625,7 +30577,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K787">
         <v>0.0004196223017982125</v>
@@ -30651,7 +30603,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K788">
         <v>0.0004196223017982125</v>
@@ -30677,7 +30629,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K789">
         <v>0.0004196223017982125</v>
@@ -30703,7 +30655,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K790">
         <v>0.0004196223017982125</v>
@@ -30729,7 +30681,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K791">
         <v>0.0003959992493139191</v>
@@ -30755,7 +30707,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K792">
         <v>0.0003735016634396913</v>
@@ -30781,7 +30733,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K793">
         <v>0.0003735016634396913</v>
@@ -30807,7 +30759,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K794">
         <v>0.0003735016634396913</v>
@@ -30833,7 +30785,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K795">
         <v>0.0003269336719533107</v>
@@ -30859,7 +30811,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K796">
         <v>0.0003269336719533107</v>
@@ -30885,7 +30837,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K797">
         <v>0.0003269336719533107</v>
@@ -30911,7 +30863,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K798">
         <v>0.0003269336719533107</v>
@@ -30937,7 +30889,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K799">
         <v>0.0003269336719533107</v>
@@ -30963,7 +30915,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K800">
         <v>0.0002960734170744442</v>
@@ -30989,7 +30941,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K801">
         <v>0.0002800137545346545</v>
@@ -31015,7 +30967,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K802">
         <v>0.0002800137545346545</v>
@@ -31041,7 +30993,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K803">
         <v>0.0002800137545346545</v>
@@ -31067,7 +31019,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K804">
         <v>0.0002496544837027239</v>
@@ -31093,7 +31045,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K805">
         <v>0.0002329031835984712</v>
@@ -31119,7 +31071,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K806">
         <v>0.0002329031835984712</v>
@@ -31145,7 +31097,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K807">
         <v>0.0002329031835984712</v>
@@ -31171,7 +31123,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K808">
         <v>0.0002329031835984712</v>
@@ -31197,7 +31149,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K809">
         <v>0.0002329031835984712</v>
@@ -31223,7 +31175,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K810">
         <v>0.0002329031835984712</v>
@@ -31249,7 +31201,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K811">
         <v>0.0002329031835984712</v>
@@ -31275,7 +31227,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K812">
         <v>0.0001971501831562783</v>
@@ -31301,7 +31253,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K813">
         <v>0.0001971501831562783</v>
@@ -31327,7 +31279,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K814">
         <v>0.0001858755353394151</v>
@@ -31353,7 +31305,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K815">
         <v>0.0001858755353394151</v>
@@ -31379,7 +31331,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K816">
         <v>0.0001858755353394151</v>
@@ -31405,7 +31357,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K817">
         <v>0.0001858755353394151</v>
@@ -31431,7 +31383,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K818">
         <v>0.0001858755353394151</v>
@@ -31457,7 +31409,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K819">
         <v>0.0001394062314219743</v>
@@ -31483,7 +31435,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K820">
         <v>0.0001394062314219743</v>
@@ -31509,7 +31461,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K821">
         <v>0.0001394062314219743</v>
@@ -31535,7 +31487,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K822">
         <v>0.0001394062314219743</v>
@@ -31561,7 +31513,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K823">
         <v>0.0001394062314219743</v>
@@ -31587,7 +31539,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K824">
         <v>0.0001394062314219743</v>
@@ -31613,7 +31565,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K825">
         <v>0.0001394062314219743</v>
@@ -31639,7 +31591,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K826">
         <v>0.0001394062314219743</v>
@@ -31665,7 +31617,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K827">
         <v>0.0001394062314219743</v>
@@ -31691,7 +31643,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K828">
         <v>0.0001394062314219743</v>
@@ -31717,7 +31669,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K829">
         <v>0.0001334459347267902</v>
@@ -31743,7 +31695,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K830">
         <v>0.0001334459347267902</v>
@@ -31769,7 +31721,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K831">
         <v>9.899981232847978E-05</v>
@@ -31795,7 +31747,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K832">
         <v>9.436052536709074E-05</v>
@@ -31821,7 +31773,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K833">
         <v>9.436052536709074E-05</v>
@@ -31847,7 +31799,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K834">
         <v>9.436052536709074E-05</v>
@@ -31873,7 +31825,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K835">
         <v>9.436052536709074E-05</v>
@@ -31899,7 +31851,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K836">
         <v>9.436052536709074E-05</v>
@@ -31925,7 +31877,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K837">
         <v>9.436052536709074E-05</v>
@@ -31951,7 +31903,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K838">
         <v>9.436052536709074E-05</v>
@@ -31977,7 +31929,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K839">
         <v>7.415844191005708E-05</v>
@@ -32003,7 +31955,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K840">
         <v>5.243793715683004E-05</v>
@@ -32029,7 +31981,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K841">
         <v>5.243793715683004E-05</v>
@@ -32055,7 +32007,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K842">
         <v>5.243793715683004E-05</v>
@@ -32081,7 +32033,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K843">
         <v>5.243793715683004E-05</v>
@@ -32107,7 +32059,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K844">
         <v>5.243793715683004E-05</v>
@@ -32133,7 +32085,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K845">
         <v>5.243793715683004E-05</v>
@@ -32159,7 +32111,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K846">
         <v>5.243793715683004E-05</v>
@@ -32185,7 +32137,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K847">
         <v>5.243793715683004E-05</v>
@@ -32211,7 +32163,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K848">
         <v>5.243793715683004E-05</v>
@@ -32237,7 +32189,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K849">
         <v>5.243793715683004E-05</v>
@@ -32263,7 +32215,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K850">
         <v>5.243793715683004E-05</v>
@@ -32289,7 +32241,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K851">
         <v>4.762252015540539E-05</v>
@@ -32315,7 +32267,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K852">
         <v>1.742704890215158E-05</v>
@@ -32341,7 +32293,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K853">
         <v>1.742704890215158E-05</v>
@@ -32367,7 +32319,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K854">
         <v>1.742704890215158E-05</v>
@@ -32393,7 +32345,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K855">
         <v>1.742704890215158E-05</v>
@@ -32419,7 +32371,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K856">
         <v>1.742704890215158E-05</v>
@@ -32445,7 +32397,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K857">
         <v>1.742704890215158E-05</v>
@@ -32471,7 +32423,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K858">
         <v>1.742704890215158E-05</v>
@@ -32497,7 +32449,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K859">
         <v>1.742704890215158E-05</v>
@@ -32523,7 +32475,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K860">
         <v>1.742704890215158E-05</v>
@@ -32549,7 +32501,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K861">
         <v>1.742704890215158E-05</v>
@@ -32575,7 +32527,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K862">
         <v>1.742704890215158E-05</v>
@@ -32601,7 +32553,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K863">
         <v>1.742704890215158E-05</v>
@@ -32627,7 +32579,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K864">
         <v>7.375331544684268E-06</v>
@@ -32653,7 +32605,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K865">
         <v>7.375331544684268E-06</v>
@@ -32679,7 +32631,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K866">
         <v>4.298077361736919E-06</v>
@@ -32705,7 +32657,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K867">
         <v>0</v>
@@ -32731,7 +32683,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K868">
         <v>0</v>
@@ -32757,7 +32709,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K869">
         <v>0</v>
@@ -32783,7 +32735,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K870">
         <v>0</v>
@@ -32809,7 +32761,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K871">
         <v>0</v>
@@ -32835,7 +32787,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K872">
         <v>0</v>
@@ -32861,7 +32813,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K873">
         <v>0</v>
@@ -32887,7 +32839,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K874">
         <v>0</v>
@@ -32913,7 +32865,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K875">
         <v>0</v>
@@ -32939,7 +32891,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K876">
         <v>0</v>
